--- a/Project-KTXForecasting/Result/Forecasting_2DFUTR13Lag12_경부선.xlsx
+++ b/Project-KTXForecasting/Result/Forecasting_2DFUTR13Lag12_경부선.xlsx
@@ -618,25 +618,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>1265069705154.286</v>
+        <v>1265191759613.865</v>
       </c>
       <c r="C7">
-        <v>1124753.175214138</v>
+        <v>1124807.432236231</v>
       </c>
       <c r="D7">
-        <v>0.03119123917993748</v>
+        <v>0.03119705395286397</v>
       </c>
       <c r="E7">
-        <v>555278.1458333334</v>
+        <v>555388.1666666666</v>
       </c>
       <c r="F7">
-        <v>0.1146059392892797</v>
+        <v>0.1146368433357465</v>
       </c>
       <c r="G7">
-        <v>255552.875</v>
+        <v>255664.25</v>
       </c>
       <c r="H7">
-        <v>0.07473319474264949</v>
+        <v>0.07476587457303631</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -939,7 +939,7 @@
         <v>3481501</v>
       </c>
       <c r="I2">
-        <v>3152613.25</v>
+        <v>3152503.25</v>
       </c>
       <c r="J2">
         <v>3152503.25</v>
@@ -992,7 +992,7 @@
         <v>3343712.25</v>
       </c>
       <c r="I3">
-        <v>3152612.25</v>
+        <v>3152502.25</v>
       </c>
       <c r="J3">
         <v>3152502</v>
@@ -1045,7 +1045,7 @@
         <v>3071801.75</v>
       </c>
       <c r="I4">
-        <v>3152610</v>
+        <v>3152500.25</v>
       </c>
       <c r="J4">
         <v>3152500.25</v>
@@ -1098,7 +1098,7 @@
         <v>3025482.75</v>
       </c>
       <c r="I5">
-        <v>3152610</v>
+        <v>3152500.5</v>
       </c>
       <c r="J5">
         <v>3152502.5</v>
@@ -1151,7 +1151,7 @@
         <v>3128388.75</v>
       </c>
       <c r="I6">
-        <v>3152612.75</v>
+        <v>3152503</v>
       </c>
       <c r="J6">
         <v>3152503</v>
@@ -1204,7 +1204,7 @@
         <v>3258934.75</v>
       </c>
       <c r="I7">
-        <v>3152625.75</v>
+        <v>3152516.5</v>
       </c>
       <c r="J7">
         <v>3152508.5</v>
@@ -1257,7 +1257,7 @@
         <v>3319504.25</v>
       </c>
       <c r="I8">
-        <v>3152657.75</v>
+        <v>3152550.75</v>
       </c>
       <c r="J8">
         <v>3152508.5</v>
@@ -1310,7 +1310,7 @@
         <v>3473312</v>
       </c>
       <c r="I9">
-        <v>3152672.5</v>
+        <v>3152565.5</v>
       </c>
       <c r="J9">
         <v>3152504</v>
@@ -1363,7 +1363,7 @@
         <v>3367669.5</v>
       </c>
       <c r="I10">
-        <v>3152640.75</v>
+        <v>3152530.75</v>
       </c>
       <c r="J10">
         <v>3152505.25</v>
@@ -1416,7 +1416,7 @@
         <v>3009929</v>
       </c>
       <c r="I11">
-        <v>3152616</v>
+        <v>3152503.75</v>
       </c>
       <c r="J11">
         <v>3152505.75</v>
@@ -1469,7 +1469,7 @@
         <v>3135444.5</v>
       </c>
       <c r="I12">
-        <v>3152616.5</v>
+        <v>3152503.5</v>
       </c>
       <c r="J12">
         <v>3152503.5</v>
@@ -1522,7 +1522,7 @@
         <v>2899709.75</v>
       </c>
       <c r="I13">
-        <v>3152621.75</v>
+        <v>3152509</v>
       </c>
       <c r="J13">
         <v>3152505.5</v>
@@ -1575,7 +1575,7 @@
         <v>3014639.5</v>
       </c>
       <c r="I14">
-        <v>3152658.25</v>
+        <v>3152545.5</v>
       </c>
       <c r="J14">
         <v>3152504.75</v>
@@ -1628,7 +1628,7 @@
         <v>3201052</v>
       </c>
       <c r="I15">
-        <v>3152691</v>
+        <v>3152578.75</v>
       </c>
       <c r="J15">
         <v>3152506</v>
@@ -1681,7 +1681,7 @@
         <v>3069817.5</v>
       </c>
       <c r="I16">
-        <v>3152690.75</v>
+        <v>3152579.25</v>
       </c>
       <c r="J16">
         <v>3152505.25</v>
@@ -1734,7 +1734,7 @@
         <v>3039840.5</v>
       </c>
       <c r="I17">
-        <v>3152689.75</v>
+        <v>3152579.5</v>
       </c>
       <c r="J17">
         <v>3152504.5</v>
@@ -1787,7 +1787,7 @@
         <v>3180951.75</v>
       </c>
       <c r="I18">
-        <v>3152691</v>
+        <v>3152581</v>
       </c>
       <c r="J18">
         <v>3152505.75</v>
@@ -1840,7 +1840,7 @@
         <v>2846737.75</v>
       </c>
       <c r="I19">
-        <v>3152691.75</v>
+        <v>3152582</v>
       </c>
       <c r="J19">
         <v>3152504.25</v>
@@ -1893,7 +1893,7 @@
         <v>3101098.75</v>
       </c>
       <c r="I20">
-        <v>3152692.25</v>
+        <v>3152582.5</v>
       </c>
       <c r="J20">
         <v>3152504.25</v>
@@ -1946,7 +1946,7 @@
         <v>3117392.75</v>
       </c>
       <c r="I21">
-        <v>3152692.5</v>
+        <v>3152583</v>
       </c>
       <c r="J21">
         <v>3152503.5</v>
@@ -1999,7 +1999,7 @@
         <v>3087475.25</v>
       </c>
       <c r="I22">
-        <v>3152692</v>
+        <v>3152581.25</v>
       </c>
       <c r="J22">
         <v>3152506.25</v>
@@ -2052,7 +2052,7 @@
         <v>2866580.5</v>
       </c>
       <c r="I23">
-        <v>3152691.5</v>
+        <v>3152579.25</v>
       </c>
       <c r="J23">
         <v>3152505.75</v>
@@ -2105,7 +2105,7 @@
         <v>2578434</v>
       </c>
       <c r="I24">
-        <v>3152692</v>
+        <v>3152579.75</v>
       </c>
       <c r="J24">
         <v>3152505.25</v>
@@ -2158,7 +2158,7 @@
         <v>2692782.25</v>
       </c>
       <c r="I25">
-        <v>3152696.25</v>
+        <v>3152580.75</v>
       </c>
       <c r="J25">
         <v>3152505.5</v>
@@ -2211,7 +2211,7 @@
         <v>2854586.75</v>
       </c>
       <c r="I26">
-        <v>3152698.25</v>
+        <v>3152578.5</v>
       </c>
       <c r="J26">
         <v>3152505.25</v>
@@ -2264,7 +2264,7 @@
         <v>3097529</v>
       </c>
       <c r="I27">
-        <v>3152700</v>
+        <v>3152575</v>
       </c>
       <c r="J27">
         <v>3152505.5</v>
@@ -2317,7 +2317,7 @@
         <v>2688094</v>
       </c>
       <c r="I28">
-        <v>3152702.25</v>
+        <v>3152575.25</v>
       </c>
       <c r="J28">
         <v>3152505</v>
@@ -2370,7 +2370,7 @@
         <v>3146182.5</v>
       </c>
       <c r="I29">
-        <v>3152706</v>
+        <v>3152576.75</v>
       </c>
       <c r="J29">
         <v>3152505.25</v>
@@ -2423,7 +2423,7 @@
         <v>2938642.25</v>
       </c>
       <c r="I30">
-        <v>3152708.5</v>
+        <v>3152575.25</v>
       </c>
       <c r="J30">
         <v>3152505.5</v>
@@ -2476,7 +2476,7 @@
         <v>2606315.25</v>
       </c>
       <c r="I31">
-        <v>3152710.25</v>
+        <v>3152571.5</v>
       </c>
       <c r="J31">
         <v>3152506</v>
@@ -2529,7 +2529,7 @@
         <v>3124526.5</v>
       </c>
       <c r="I32">
-        <v>3152715</v>
+        <v>3152571</v>
       </c>
       <c r="J32">
         <v>3152505.5</v>
@@ -2582,7 +2582,7 @@
         <v>2905329.75</v>
       </c>
       <c r="I33">
-        <v>3152719</v>
+        <v>3152572.75</v>
       </c>
       <c r="J33">
         <v>3152505.75</v>
@@ -2635,7 +2635,7 @@
         <v>2925047</v>
       </c>
       <c r="I34">
-        <v>3152719.75</v>
+        <v>3152573.5</v>
       </c>
       <c r="J34">
         <v>3152505.5</v>
@@ -2882,106 +2882,106 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>247200233642.4037</v>
+        <v>247199612446.3203</v>
       </c>
       <c r="C9">
-        <v>497192.3507480819</v>
+        <v>497191.7260437067</v>
       </c>
       <c r="D9">
-        <v>0.03036077980052907</v>
+        <v>0.03036071803783699</v>
       </c>
       <c r="E9">
-        <v>282767.3125</v>
+        <v>282767.2708333333</v>
       </c>
       <c r="F9">
-        <v>0.1235351948199645</v>
+        <v>0.1235352048047402</v>
       </c>
       <c r="G9">
-        <v>132180.3125</v>
+        <v>132179.25</v>
       </c>
       <c r="H9">
-        <v>0.08037678208830412</v>
+        <v>0.08037611632114572</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>235573727944.4596</v>
+        <v>247200233642.4037</v>
       </c>
       <c r="C10">
-        <v>485359.3801962208</v>
+        <v>497192.3507480819</v>
       </c>
       <c r="D10">
-        <v>0.02948790183882105</v>
+        <v>0.03036077980052907</v>
       </c>
       <c r="E10">
-        <v>263301.4479166667</v>
+        <v>282767.3125</v>
       </c>
       <c r="F10">
-        <v>0.1179077213551934</v>
+        <v>0.1235351948199645</v>
       </c>
       <c r="G10">
-        <v>159181.5625</v>
+        <v>132180.3125</v>
       </c>
       <c r="H10">
-        <v>0.09647854846309115</v>
+        <v>0.08037678208830412</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>227758239770.112</v>
+        <v>235573727944.4596</v>
       </c>
       <c r="C11">
-        <v>477240.2327655454</v>
+        <v>485359.3801962208</v>
       </c>
       <c r="D11">
-        <v>0.03031947305248245</v>
+        <v>0.02948790183882105</v>
       </c>
       <c r="E11">
-        <v>283957.9791666667</v>
+        <v>263301.4479166667</v>
       </c>
       <c r="F11">
-        <v>0.1304904156155903</v>
+        <v>0.1179077213551934</v>
       </c>
       <c r="G11">
-        <v>176889.625</v>
+        <v>159181.5625</v>
       </c>
       <c r="H11">
-        <v>0.09890301713662286</v>
+        <v>0.09647854846309115</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>331542823111.3034</v>
+        <v>227758239770.112</v>
       </c>
       <c r="C12">
-        <v>575797.5539295938</v>
+        <v>477240.2327655454</v>
       </c>
       <c r="D12">
-        <v>0.04190590480465098</v>
+        <v>0.03031947305248245</v>
       </c>
       <c r="E12">
-        <v>327758.84375</v>
+        <v>283957.9791666667</v>
       </c>
       <c r="F12">
-        <v>0.1437971107204032</v>
+        <v>0.1304904156155903</v>
       </c>
       <c r="G12">
-        <v>146358.625</v>
+        <v>176889.625</v>
       </c>
       <c r="H12">
-        <v>0.09071835589197819</v>
+        <v>0.09890301713662286</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3107,16 +3107,16 @@
         <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>8</v>
@@ -3160,16 +3160,16 @@
         <v>1653210.875</v>
       </c>
       <c r="K2">
+        <v>1633391</v>
+      </c>
+      <c r="L2">
         <v>1633390.25</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1810532.625</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1872948.875</v>
-      </c>
-      <c r="N2">
-        <v>1393217.875</v>
       </c>
       <c r="O2">
         <v>1776310.75</v>
@@ -3213,16 +3213,16 @@
         <v>1387114.875</v>
       </c>
       <c r="K3">
+        <v>1633389.75</v>
+      </c>
+      <c r="L3">
         <v>1633387.375</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1642856.625</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1698813.75</v>
-      </c>
-      <c r="N3">
-        <v>1393218</v>
       </c>
       <c r="O3">
         <v>1526072.75</v>
@@ -3266,16 +3266,16 @@
         <v>1553440.5</v>
       </c>
       <c r="K4">
+        <v>1633387.625</v>
+      </c>
+      <c r="L4">
         <v>1633386.25</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1723972.25</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1722995.75</v>
-      </c>
-      <c r="N4">
-        <v>1429751.75</v>
       </c>
       <c r="O4">
         <v>1560452.25</v>
@@ -3319,16 +3319,16 @@
         <v>1653210.875</v>
       </c>
       <c r="K5">
+        <v>1633387.25</v>
+      </c>
+      <c r="L5">
         <v>1633387.375</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1667612.875</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1549190.125</v>
-      </c>
-      <c r="N5">
-        <v>1513257.25</v>
       </c>
       <c r="O5">
         <v>1557225</v>
@@ -3372,16 +3372,16 @@
         <v>1483997.25</v>
       </c>
       <c r="K6">
+        <v>1633389.5</v>
+      </c>
+      <c r="L6">
         <v>1633392.125</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1343121.875</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1377264</v>
-      </c>
-      <c r="N6">
-        <v>1596762.75</v>
       </c>
       <c r="O6">
         <v>1341667.5</v>
@@ -3425,16 +3425,16 @@
         <v>1577891.75</v>
       </c>
       <c r="K7">
+        <v>1633390.375</v>
+      </c>
+      <c r="L7">
         <v>1633395.125</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1534460.5</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1516351.625</v>
-      </c>
-      <c r="N7">
-        <v>1680268.25</v>
       </c>
       <c r="O7">
         <v>1503820.875</v>
@@ -3478,16 +3478,16 @@
         <v>1553440.5</v>
       </c>
       <c r="K8">
+        <v>1633389.625</v>
+      </c>
+      <c r="L8">
         <v>1633392.5</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1695649.75</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1732192.25</v>
-      </c>
-      <c r="N8">
-        <v>1727449.375</v>
       </c>
       <c r="O8">
         <v>1632644.5</v>
@@ -3531,16 +3531,16 @@
         <v>1483997.25</v>
       </c>
       <c r="K9">
+        <v>1633389.25</v>
+      </c>
+      <c r="L9">
         <v>1633388.5</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1634705</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1638269.375</v>
-      </c>
-      <c r="N9">
-        <v>1694717.125</v>
       </c>
       <c r="O9">
         <v>1597364.375</v>
@@ -3584,16 +3584,16 @@
         <v>1857816.5</v>
       </c>
       <c r="K10">
+        <v>1633389.875</v>
+      </c>
+      <c r="L10">
         <v>1633389</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>1979464</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1819399.75</v>
-      </c>
-      <c r="N10">
-        <v>1661984.875</v>
       </c>
       <c r="O10">
         <v>1846375.25</v>
@@ -3637,16 +3637,16 @@
         <v>1483997.25</v>
       </c>
       <c r="K11">
+        <v>1633390.75</v>
+      </c>
+      <c r="L11">
         <v>1633392.125</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>1312642.875</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1272403.875</v>
-      </c>
-      <c r="N11">
-        <v>1629252.5</v>
       </c>
       <c r="O11">
         <v>1314055.25</v>
@@ -3690,16 +3690,16 @@
         <v>1436690.5</v>
       </c>
       <c r="K12">
+        <v>1633391.125</v>
+      </c>
+      <c r="L12">
         <v>1633389.375</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1291359.75</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>1252588</v>
-      </c>
-      <c r="N12">
-        <v>1601267.625</v>
       </c>
       <c r="O12">
         <v>1324070.375</v>
@@ -3743,16 +3743,16 @@
         <v>1922049.5</v>
       </c>
       <c r="K13">
+        <v>1633391.375</v>
+      </c>
+      <c r="L13">
         <v>1633391.5</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>1685113</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>1701590.125</v>
-      </c>
-      <c r="N13">
-        <v>1593854.25</v>
       </c>
       <c r="O13">
         <v>1749125.125</v>
@@ -3796,16 +3796,16 @@
         <v>1483997.25</v>
       </c>
       <c r="K14">
+        <v>1633390.375</v>
+      </c>
+      <c r="L14">
         <v>1633392</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1442944</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1467052.375</v>
-      </c>
-      <c r="N14">
-        <v>1586441.125</v>
       </c>
       <c r="O14">
         <v>1532692.375</v>
@@ -3849,16 +3849,16 @@
         <v>1780658.75</v>
       </c>
       <c r="K15">
+        <v>1633389.5</v>
+      </c>
+      <c r="L15">
         <v>1633391.625</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1570619</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>1514104.125</v>
-      </c>
-      <c r="N15">
-        <v>1579027.875</v>
       </c>
       <c r="O15">
         <v>1573275.125</v>
@@ -3902,16 +3902,16 @@
         <v>1653210.875</v>
       </c>
       <c r="K16">
+        <v>1633389.25</v>
+      </c>
+      <c r="L16">
         <v>1633391.25</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1561645.875</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1566990.125</v>
-      </c>
-      <c r="N16">
-        <v>1569819.875</v>
       </c>
       <c r="O16">
         <v>1566209.5</v>
@@ -3955,16 +3955,16 @@
         <v>1483997.25</v>
       </c>
       <c r="K17">
+        <v>1633388.875</v>
+      </c>
+      <c r="L17">
         <v>1633390.375</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1368784.375</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1374171.75</v>
-      </c>
-      <c r="N17">
-        <v>1533688.25</v>
       </c>
       <c r="O17">
         <v>1371630.5</v>
@@ -4008,16 +4008,16 @@
         <v>1653210.875</v>
       </c>
       <c r="K18">
+        <v>1633389.75</v>
+      </c>
+      <c r="L18">
         <v>1633391.25</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1520833.25</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1487363.375</v>
-      </c>
-      <c r="N18">
-        <v>1497556.75</v>
       </c>
       <c r="O18">
         <v>1555046.375</v>
@@ -4061,16 +4061,16 @@
         <v>1553440.5</v>
       </c>
       <c r="K19">
+        <v>1633390.5</v>
+      </c>
+      <c r="L19">
         <v>1633390.875</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1525527.5</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>1440073.625</v>
-      </c>
-      <c r="N19">
-        <v>1461425.25</v>
       </c>
       <c r="O19">
         <v>1522809</v>
@@ -4114,16 +4114,16 @@
         <v>1483997.25</v>
       </c>
       <c r="K20">
+        <v>1633390.25</v>
+      </c>
+      <c r="L20">
         <v>1633389.75</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>1300224.625</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>1422304.5</v>
-      </c>
-      <c r="N20">
-        <v>1425293.75</v>
       </c>
       <c r="O20">
         <v>1440577.5</v>
@@ -4167,16 +4167,16 @@
         <v>1653210.875</v>
       </c>
       <c r="K21">
+        <v>1633390.125</v>
+      </c>
+      <c r="L21">
         <v>1633389.75</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>1583103.25</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>1700761</v>
-      </c>
-      <c r="N21">
-        <v>1491129.625</v>
       </c>
       <c r="O21">
         <v>1583598.5</v>
@@ -4220,16 +4220,16 @@
         <v>1553440.5</v>
       </c>
       <c r="K22">
+        <v>1633390.125</v>
+      </c>
+      <c r="L22">
         <v>1633390.5</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>1645375.25</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>1611432.75</v>
-      </c>
-      <c r="N22">
-        <v>1563763.5</v>
       </c>
       <c r="O22">
         <v>1607070</v>
@@ -4273,16 +4273,16 @@
         <v>1553440.5</v>
       </c>
       <c r="K23">
+        <v>1633390.5</v>
+      </c>
+      <c r="L23">
         <v>1633391.625</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>1549221.75</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>1384855.875</v>
-      </c>
-      <c r="N23">
-        <v>1636397.25</v>
       </c>
       <c r="O23">
         <v>1354094</v>
@@ -4326,16 +4326,16 @@
         <v>1483997.25</v>
       </c>
       <c r="K24">
+        <v>1633391.375</v>
+      </c>
+      <c r="L24">
         <v>1633391.25</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>1322096.125</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>1327462.25</v>
-      </c>
-      <c r="N24">
-        <v>1709031</v>
       </c>
       <c r="O24">
         <v>1280517.25</v>
@@ -4379,16 +4379,16 @@
         <v>1816392.375</v>
       </c>
       <c r="K25">
+        <v>1633392.375</v>
+      </c>
+      <c r="L25">
         <v>1633391.5</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>1523041.375</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>1555415.125</v>
-      </c>
-      <c r="N25">
-        <v>1888652.25</v>
       </c>
       <c r="O25">
         <v>1539310</v>
@@ -4432,16 +4432,16 @@
         <v>1483997.25</v>
       </c>
       <c r="K26">
+        <v>1633391.75</v>
+      </c>
+      <c r="L26">
         <v>1633391.25</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1430566</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>1517424.5</v>
-      </c>
-      <c r="N26">
-        <v>2092962.625</v>
       </c>
       <c r="O26">
         <v>1444070.5</v>
@@ -4485,16 +4485,16 @@
         <v>1653210.875</v>
       </c>
       <c r="K27">
+        <v>1633390.5</v>
+      </c>
+      <c r="L27">
         <v>1633391.375</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>1611730.25</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>1608320.375</v>
-      </c>
-      <c r="N27">
-        <v>2297273.25</v>
       </c>
       <c r="O27">
         <v>1594073.125</v>
@@ -4538,16 +4538,16 @@
         <v>1780658.75</v>
       </c>
       <c r="K28">
+        <v>1633390.25</v>
+      </c>
+      <c r="L28">
         <v>1633391</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>1574691</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>1548703.75</v>
-      </c>
-      <c r="N28">
-        <v>2501583.5</v>
       </c>
       <c r="O28">
         <v>1575094.5</v>
@@ -4591,16 +4591,16 @@
         <v>1483997.25</v>
       </c>
       <c r="K29">
+        <v>1633390</v>
+      </c>
+      <c r="L29">
         <v>1633391.125</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>1481366.75</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>1492102.75</v>
-      </c>
-      <c r="N29">
-        <v>2561543</v>
       </c>
       <c r="O29">
         <v>1435283.5</v>
@@ -4644,16 +4644,16 @@
         <v>1922049.5</v>
       </c>
       <c r="K30">
+        <v>1633395.125</v>
+      </c>
+      <c r="L30">
         <v>1633391.25</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>1675115.875</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>1676266.25</v>
-      </c>
-      <c r="N30">
-        <v>2555888.75</v>
       </c>
       <c r="O30">
         <v>1702122.5</v>
@@ -4697,16 +4697,16 @@
         <v>1483997.25</v>
       </c>
       <c r="K31">
+        <v>1633403.5</v>
+      </c>
+      <c r="L31">
         <v>1633391.75</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>1270009.625</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>1254630.625</v>
-      </c>
-      <c r="N31">
-        <v>2550233.75</v>
       </c>
       <c r="O31">
         <v>1275352.875</v>
@@ -4750,16 +4750,16 @@
         <v>1668129.5</v>
       </c>
       <c r="K32">
+        <v>1633406.25</v>
+      </c>
+      <c r="L32">
         <v>1633391.25</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>1458031.125</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>1499164.625</v>
-      </c>
-      <c r="N32">
-        <v>2544578.75</v>
       </c>
       <c r="O32">
         <v>1495205.75</v>
@@ -4803,16 +4803,16 @@
         <v>1653210.875</v>
       </c>
       <c r="K33">
+        <v>1633405.375</v>
+      </c>
+      <c r="L33">
         <v>1633391.5</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>1756844.875</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>1744002.75</v>
-      </c>
-      <c r="N33">
-        <v>2542105.25</v>
       </c>
       <c r="O33">
         <v>1706004.125</v>
@@ -4856,16 +4856,16 @@
         <v>1483997.25</v>
       </c>
       <c r="K34">
+        <v>1633405</v>
+      </c>
+      <c r="L34">
         <v>1633391.375</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>1582011.625</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>1459951.5</v>
-      </c>
-      <c r="N34">
-        <v>2542105.5</v>
       </c>
       <c r="O34">
         <v>1440243.75</v>
@@ -4941,54 +4941,54 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>424270217154.9349</v>
+        <v>411431621024.3099</v>
       </c>
       <c r="C3">
-        <v>651360.2821441717</v>
+        <v>641429.3577817513</v>
       </c>
       <c r="D3">
-        <v>0.03988554093395755</v>
+        <v>0.04078158417556648</v>
       </c>
       <c r="E3">
-        <v>333371.8125</v>
+        <v>345507.9166666667</v>
       </c>
       <c r="F3">
-        <v>0.1357732560140124</v>
+        <v>0.1475819891412198</v>
       </c>
       <c r="G3">
-        <v>154714.9375</v>
+        <v>161197.5</v>
       </c>
       <c r="H3">
-        <v>0.08956869804996169</v>
+        <v>0.09453964020619821</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>411431621024.3099</v>
+        <v>438452197308.582</v>
       </c>
       <c r="C4">
-        <v>641429.3577817513</v>
+        <v>662157.2300508256</v>
       </c>
       <c r="D4">
-        <v>0.04078158417556648</v>
+        <v>0.0418001994384622</v>
       </c>
       <c r="E4">
-        <v>345507.9166666667</v>
+        <v>343700.46875</v>
       </c>
       <c r="F4">
-        <v>0.1475819891412198</v>
+        <v>0.1410200642250801</v>
       </c>
       <c r="G4">
-        <v>161197.5</v>
+        <v>174682.0625</v>
       </c>
       <c r="H4">
-        <v>0.09453964020619821</v>
+        <v>0.1012761022397703</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5304,10 +5304,10 @@
         <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -5357,10 +5357,10 @@
         <v>1328690.625</v>
       </c>
       <c r="E2">
-        <v>1499373.625</v>
+        <v>1380547.75</v>
       </c>
       <c r="F2">
-        <v>1380547.75</v>
+        <v>1519112.625</v>
       </c>
       <c r="G2">
         <v>1378359.383405433</v>
@@ -5410,10 +5410,10 @@
         <v>1681071.5</v>
       </c>
       <c r="E3">
-        <v>1548372</v>
+        <v>1590697</v>
       </c>
       <c r="F3">
-        <v>1590697</v>
+        <v>1519112.75</v>
       </c>
       <c r="G3">
         <v>1596554.252462479</v>
@@ -5463,10 +5463,10 @@
         <v>1436250.125</v>
       </c>
       <c r="E4">
-        <v>1652901.75</v>
+        <v>1450464</v>
       </c>
       <c r="F4">
-        <v>1450464</v>
+        <v>1519112.75</v>
       </c>
       <c r="G4">
         <v>1546412.336450647</v>
@@ -5516,10 +5516,10 @@
         <v>1518463.375</v>
       </c>
       <c r="E5">
-        <v>1668045.25</v>
+        <v>1473732.125</v>
       </c>
       <c r="F5">
-        <v>1473732.125</v>
+        <v>1519112.625</v>
       </c>
       <c r="G5">
         <v>1504682.242519008</v>
@@ -5569,10 +5569,10 @@
         <v>1693508</v>
       </c>
       <c r="E6">
-        <v>1552547.875</v>
+        <v>1635202.875</v>
       </c>
       <c r="F6">
-        <v>1635202.875</v>
+        <v>1519112.875</v>
       </c>
       <c r="G6">
         <v>1596554.252462479</v>
@@ -5622,10 +5622,10 @@
         <v>1492780</v>
       </c>
       <c r="E7">
-        <v>1488161.625</v>
+        <v>1440081.125</v>
       </c>
       <c r="F7">
-        <v>1440081.125</v>
+        <v>1519113</v>
       </c>
       <c r="G7">
         <v>1438620.485344651</v>
@@ -5675,10 +5675,10 @@
         <v>1780575.75</v>
       </c>
       <c r="E8">
-        <v>1521351.5</v>
+        <v>1735575.5</v>
       </c>
       <c r="F8">
-        <v>1735575.5</v>
+        <v>1519113</v>
       </c>
       <c r="G8">
         <v>1596554.252462479</v>
@@ -5728,10 +5728,10 @@
         <v>1622337</v>
       </c>
       <c r="E9">
-        <v>1543001.125</v>
+        <v>1457861.875</v>
       </c>
       <c r="F9">
-        <v>1457861.875</v>
+        <v>1519113.375</v>
       </c>
       <c r="G9">
         <v>1575254.172632287</v>
@@ -5781,10 +5781,10 @@
         <v>1537221.625</v>
       </c>
       <c r="E10">
-        <v>1535160</v>
+        <v>1486726.75</v>
       </c>
       <c r="F10">
-        <v>1486726.75</v>
+        <v>1519113.5</v>
       </c>
       <c r="G10">
         <v>1438620.485344651</v>
@@ -5834,10 +5834,10 @@
         <v>1665005.5</v>
       </c>
       <c r="E11">
-        <v>1527711.875</v>
+        <v>1629384</v>
       </c>
       <c r="F11">
-        <v>1629384</v>
+        <v>1519113.875</v>
       </c>
       <c r="G11">
         <v>1596554.252462479</v>
@@ -5887,10 +5887,10 @@
         <v>1566386.25</v>
       </c>
       <c r="E12">
-        <v>1521667</v>
+        <v>1482327.625</v>
       </c>
       <c r="F12">
-        <v>1482327.625</v>
+        <v>1519113.875</v>
       </c>
       <c r="G12">
         <v>1546412.336450647</v>
@@ -5940,10 +5940,10 @@
         <v>1194498</v>
       </c>
       <c r="E13">
-        <v>1514043.125</v>
+        <v>1195579.375</v>
       </c>
       <c r="F13">
-        <v>1195579.375</v>
+        <v>1519113.625</v>
       </c>
       <c r="G13">
         <v>1378359.383405433</v>
@@ -5993,10 +5993,10 @@
         <v>1422745</v>
       </c>
       <c r="E14">
-        <v>1497892.875</v>
+        <v>1329392.125</v>
       </c>
       <c r="F14">
-        <v>1329392.125</v>
+        <v>1519113.625</v>
       </c>
       <c r="G14">
         <v>1596554.252462479</v>
@@ -6046,10 +6046,10 @@
         <v>1472937.25</v>
       </c>
       <c r="E15">
-        <v>1476607.5</v>
+        <v>1549449.625</v>
       </c>
       <c r="F15">
-        <v>1549449.625</v>
+        <v>1519113.625</v>
       </c>
       <c r="G15">
         <v>1596554.252462479</v>
@@ -6099,10 +6099,10 @@
         <v>1225282</v>
       </c>
       <c r="E16">
-        <v>1405682</v>
+        <v>1267762.25</v>
       </c>
       <c r="F16">
-        <v>1267762.25</v>
+        <v>1519113.375</v>
       </c>
       <c r="G16">
         <v>1438620.485344651</v>
@@ -6152,10 +6152,10 @@
         <v>1555136.25</v>
       </c>
       <c r="E17">
-        <v>1337793.375</v>
+        <v>1532316.5</v>
       </c>
       <c r="F17">
-        <v>1532316.5</v>
+        <v>1519113</v>
       </c>
       <c r="G17">
         <v>1575254.172632287</v>
@@ -6205,10 +6205,10 @@
         <v>1429345.125</v>
       </c>
       <c r="E18">
-        <v>1364066.125</v>
+        <v>1439301.625</v>
       </c>
       <c r="F18">
-        <v>1439301.625</v>
+        <v>1519113.375</v>
       </c>
       <c r="G18">
         <v>1546412.336450647</v>
@@ -6258,10 +6258,10 @@
         <v>1528997.875</v>
       </c>
       <c r="E19">
-        <v>1390339</v>
+        <v>1524660.125</v>
       </c>
       <c r="F19">
-        <v>1524660.125</v>
+        <v>1519113.5</v>
       </c>
       <c r="G19">
         <v>1546412.336450647</v>
@@ -6311,10 +6311,10 @@
         <v>1623493.875</v>
       </c>
       <c r="E20">
-        <v>1456447.375</v>
+        <v>1532784.125</v>
       </c>
       <c r="F20">
-        <v>1532784.125</v>
+        <v>1519113.75</v>
       </c>
       <c r="G20">
         <v>1596554.252462479</v>
@@ -6364,10 +6364,10 @@
         <v>1230325.375</v>
       </c>
       <c r="E21">
-        <v>1523841.375</v>
+        <v>1241317.625</v>
       </c>
       <c r="F21">
-        <v>1241317.625</v>
+        <v>1519113.875</v>
       </c>
       <c r="G21">
         <v>1378359.383405433</v>
@@ -6417,10 +6417,10 @@
         <v>1478268</v>
       </c>
       <c r="E22">
-        <v>1448531.5</v>
+        <v>1475677.75</v>
       </c>
       <c r="F22">
-        <v>1475677.75</v>
+        <v>1519113.75</v>
       </c>
       <c r="G22">
         <v>1596554.252462479</v>
@@ -6470,10 +6470,10 @@
         <v>1665515.5</v>
       </c>
       <c r="E23">
-        <v>1358459.375</v>
+        <v>1625172.25</v>
       </c>
       <c r="F23">
-        <v>1625172.25</v>
+        <v>1519113.75</v>
       </c>
       <c r="G23">
         <v>1596554.252462479</v>
@@ -6523,10 +6523,10 @@
         <v>1218281.375</v>
       </c>
       <c r="E24">
-        <v>1362857.25</v>
+        <v>1171355.75</v>
       </c>
       <c r="F24">
-        <v>1171355.75</v>
+        <v>1519113.875</v>
       </c>
       <c r="G24">
         <v>1378359.383405433</v>
@@ -6576,10 +6576,10 @@
         <v>1279479.375</v>
       </c>
       <c r="E25">
-        <v>1384749.75</v>
+        <v>1266059</v>
       </c>
       <c r="F25">
-        <v>1266059</v>
+        <v>1519113.875</v>
       </c>
       <c r="G25">
         <v>1546412.336450647</v>
@@ -6629,10 +6629,10 @@
         <v>1453774.125</v>
       </c>
       <c r="E26">
-        <v>1469520.625</v>
+        <v>1525388</v>
       </c>
       <c r="F26">
-        <v>1525388</v>
+        <v>1519114.125</v>
       </c>
       <c r="G26">
         <v>1575254.172632287</v>
@@ -6682,10 +6682,10 @@
         <v>1330766.125</v>
       </c>
       <c r="E27">
-        <v>1571897.875</v>
+        <v>1387719.625</v>
       </c>
       <c r="F27">
-        <v>1387719.625</v>
+        <v>1519114.125</v>
       </c>
       <c r="G27">
         <v>1546412.336450647</v>
@@ -6735,10 +6735,10 @@
         <v>1281141.75</v>
       </c>
       <c r="E28">
-        <v>1616163</v>
+        <v>1248790.125</v>
       </c>
       <c r="F28">
-        <v>1248790.125</v>
+        <v>1519113.875</v>
       </c>
       <c r="G28">
         <v>1504682.242519008</v>
@@ -6788,10 +6788,10 @@
         <v>1589247.375</v>
       </c>
       <c r="E29">
-        <v>1637688.625</v>
+        <v>1563802.5</v>
       </c>
       <c r="F29">
-        <v>1563802.5</v>
+        <v>1519113.375</v>
       </c>
       <c r="G29">
         <v>1575254.172632287</v>
@@ -6841,10 +6841,10 @@
         <v>1261300.375</v>
       </c>
       <c r="E30">
-        <v>1619548.625</v>
+        <v>1353133.5</v>
       </c>
       <c r="F30">
-        <v>1353133.5</v>
+        <v>1519113.5</v>
       </c>
       <c r="G30">
         <v>1378359.383405433</v>
@@ -6894,10 +6894,10 @@
         <v>1381939</v>
       </c>
       <c r="E31">
-        <v>1580631.5</v>
+        <v>1422106.5</v>
       </c>
       <c r="F31">
-        <v>1422106.5</v>
+        <v>1519113.75</v>
       </c>
       <c r="G31">
         <v>1575254.172632287</v>
@@ -6947,10 +6947,10 @@
         <v>1546653.875</v>
       </c>
       <c r="E32">
-        <v>1581537.875</v>
+        <v>1542300.625</v>
       </c>
       <c r="F32">
-        <v>1542300.625</v>
+        <v>1519113.875</v>
       </c>
       <c r="G32">
         <v>1596554.252462479</v>
@@ -7000,10 +7000,10 @@
         <v>1274487.125</v>
       </c>
       <c r="E33">
-        <v>1609692</v>
+        <v>1312618.375</v>
       </c>
       <c r="F33">
-        <v>1312618.375</v>
+        <v>1519113.75</v>
       </c>
       <c r="G33">
         <v>1378359.383405433</v>
@@ -7053,10 +7053,10 @@
         <v>1567245</v>
       </c>
       <c r="E34">
-        <v>1622889.125</v>
+        <v>1618451.375</v>
       </c>
       <c r="F34">
-        <v>1618451.375</v>
+        <v>1519113.625</v>
       </c>
       <c r="G34">
         <v>1596554.252462479</v>
